--- a/Resources/TestData.xlsx
+++ b/Resources/TestData.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Save_and_Publish" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
-    <sheet name="Product_Export" sheetId="3" r:id="rId3"/>
+    <sheet name="Product_Export" sheetId="3" r:id="rId2"/>
+    <sheet name="Manage_Price" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="47">
   <si>
     <t>S No</t>
   </si>
@@ -565,7 +565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:A6"/>
     </sheetView>
   </sheetViews>
@@ -614,22 +614,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection sqref="A1:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -672,12 +660,55 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20:J23"/>
+      <selection activeCell="J20" sqref="J20:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
